--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/test-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/test-plan.xlsx
@@ -619,7 +619,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 03, 2025</t>
+          <t>November 09, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/test-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/test-plan.xlsx
@@ -207,10 +207,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>2</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1428750" cy="476250"/>
+    <ext cx="1143000" cy="285750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -218,62 +218,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1428750" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1905000" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -595,7 +539,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
     <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="60" customHeight="1"/>
+    <row r="3" ht="20" customHeight="1"/>
     <row r="4" ht="30" customHeight="1">
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -638,7 +582,7 @@
     <row r="9">
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Purpose:</t>
+          <t>Customer Name:</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -661,9 +605,9 @@
     </row>
     <row r="11" ht="20" customHeight="1"/>
     <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="60" customHeight="1"/>
+    <row r="13" ht="10" customHeight="1"/>
     <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="60" customHeight="1"/>
+    <row r="15" ht="40" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/test-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/test-plan.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 09, 2025</t>
+          <t>November 10, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/test-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/test-plan.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 10, 2025</t>
+          <t>November 11, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/test-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/test-plan.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 11, 2025</t>
+          <t>November 15, 2025</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="26" customHeight="1">
+    <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t>TEST-005</t>
@@ -1163,7 +1163,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="26" customHeight="1">
+    <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>TEST-006</t>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="26" customHeight="1">
+    <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
           <t>TEST-007</t>
@@ -1334,7 +1334,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="26" customHeight="1">
+    <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
           <t>TEST-008</t>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="26" customHeight="1">
+    <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
           <t>TEST-009</t>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="26" customHeight="1">
+    <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
           <t>TEST-010</t>
@@ -1591,7 +1591,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="26" customHeight="1">
+    <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
           <t>TEST-011</t>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="26" customHeight="1">
+    <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>TEST-012</t>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="26" customHeight="1">
+    <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
           <t>TEST-013</t>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="26" customHeight="1">
+    <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
           <t>TEST-014</t>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="26" customHeight="1">
+    <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
           <t>TEST-015</t>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/test-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/test-plan.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Plan'!$A$1:$Q$16</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Test Plan'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,8 +20,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,26 +32,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
+      <color rgb="0095A5A6"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI Light"/>
+      <color rgb="002C3E50"/>
+      <sz val="28"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <color rgb="005D6D7E"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
       <b val="1"/>
-      <color rgb="001F4E78"/>
-      <sz val="24"/>
+      <color rgb="005D6D7E"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="14"/>
+      <color rgb="002C3E50"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <b val="1"/>
+      <color rgb="00CC0000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="005D6D7E"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Segoe UI Semibold"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="0044546A"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="11"/>
+      <color rgb="00CC0000"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -62,12 +93,36 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CC0000"/>
+        <bgColor rgb="00CC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002C3E50"/>
+        <bgColor rgb="002C3E50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8FAFB"/>
+        <bgColor rgb="00F8FAFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F4F8"/>
+        <bgColor rgb="00E8F4F8"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -88,13 +143,41 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00BDC3C7"/>
+      </left>
+      <right style="thin">
+        <color rgb="00BDC3C7"/>
+      </right>
+      <top style="thin">
+        <color rgb="00BDC3C7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="002C3E50"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00DEE2E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="00DEE2E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="00DEE2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00DEE2E6"/>
+      </bottom>
     </border>
     <border>
       <left style="thin"/>
@@ -106,23 +189,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -207,10 +332,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1143000" cy="285750"/>
+    <ext cx="1238250" cy="314325"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -523,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B4:C10"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,83 +656,107 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="3" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1"/>
-    <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="20" customHeight="1"/>
-    <row r="4" ht="30" customHeight="1">
-      <c r="B4" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1">
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2" ht="60" customHeight="1">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>[VENDOR LOGO]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1"/>
+    <row r="4" ht="40" customHeight="1">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Test Plan</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="B5" s="2" t="inlineStr">
+    <row r="5" ht="25" customHeight="1">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Delivery Document</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1"/>
-    <row r="7">
-      <c r="B7" s="3" t="inlineStr">
+    <row r="6" ht="30" customHeight="1"/>
+    <row r="7" ht="18" customHeight="1">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Generated:</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>November 15, 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>November 16, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Sample Solution</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Customer Name:</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
+    <row r="9" ht="18" customHeight="1">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Customer:</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>Data table for test plan</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="3" t="inlineStr">
+    <row r="10" ht="18" customHeight="1">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Version:</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1"/>
-    <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="10" customHeight="1"/>
-    <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="40" customHeight="1"/>
+    <row r="11" ht="18" customHeight="1">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="40" customHeight="1"/>
+    <row r="13" ht="30" customHeight="1">
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>eoframework.org</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -618,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q16"/>
   <sheetViews>
@@ -649,294 +798,294 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="19" t="inlineStr">
         <is>
           <t>Test ID</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="19" t="inlineStr">
         <is>
           <t>Test Category</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="19" t="inlineStr">
         <is>
           <t>Test Type</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="19" t="inlineStr">
         <is>
           <t>Test Name</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="19" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="19" t="inlineStr">
         <is>
           <t>Pre-conditions</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="19" t="inlineStr">
         <is>
           <t>Test Steps</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="19" t="inlineStr">
         <is>
           <t>Expected Results</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="19" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="19" t="inlineStr">
         <is>
           <t>Environment</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="19" t="inlineStr">
         <is>
           <t>Assigned Tester</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="19" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="19" t="inlineStr">
         <is>
           <t>Execution Date</t>
         </is>
       </c>
-      <c r="N1" s="5" t="inlineStr">
+      <c r="N1" s="19" t="inlineStr">
         <is>
           <t>Actual Results</t>
         </is>
       </c>
-      <c r="O1" s="5" t="inlineStr">
+      <c r="O1" s="19" t="inlineStr">
         <is>
           <t>Pass/Fail</t>
         </is>
       </c>
-      <c r="P1" s="5" t="inlineStr">
+      <c r="P1" s="19" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="Q1" s="5" t="inlineStr">
+      <c r="Q1" s="19" t="inlineStr">
         <is>
           <t>Requirements Traced</t>
         </is>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="20" t="inlineStr">
         <is>
           <t>TEST-001</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>Functional</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="20" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="20" t="inlineStr">
         <is>
           <t>User Authentication</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="20" t="inlineStr">
         <is>
           <t>Validate user login with valid credentials</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="20" t="inlineStr">
         <is>
           <t>Valid user account exists, System is running</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="G2" s="20" t="inlineStr">
         <is>
           <t>1. Navigate to login page
 2. Enter valid username and password
 3. Click login button</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="20" t="inlineStr">
         <is>
           <t>User is authenticated and redirected to dashboard</t>
         </is>
       </c>
-      <c r="I2" s="6" t="inlineStr">
+      <c r="I2" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J2" s="6" t="inlineStr">
+      <c r="J2" s="20" t="inlineStr">
         <is>
           <t>Unit Test</t>
         </is>
       </c>
-      <c r="K2" s="6" t="inlineStr">
+      <c r="K2" s="20" t="inlineStr">
         <is>
           <t>Developer</t>
         </is>
       </c>
-      <c r="L2" s="6" t="inlineStr">
+      <c r="L2" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="M2" s="6" t="inlineStr">
+      <c r="M2" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="N2" s="6" t="n">
-        <v/>
-      </c>
-      <c r="O2" s="6" t="n">
-        <v/>
-      </c>
-      <c r="P2" s="6" t="inlineStr">
+      <c r="N2" s="20" t="n">
+        <v/>
+      </c>
+      <c r="O2" s="20" t="n">
+        <v/>
+      </c>
+      <c r="P2" s="20" t="inlineStr">
         <is>
           <t>Test framework configured, Mock data ready</t>
         </is>
       </c>
-      <c r="Q2" s="6" t="inlineStr">
+      <c r="Q2" s="20" t="inlineStr">
         <is>
           <t>REQ-001</t>
         </is>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="21" t="inlineStr">
         <is>
           <t>TEST-002</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="21" t="inlineStr">
         <is>
           <t>Functional</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="21" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="21" t="inlineStr">
         <is>
           <t>Invalid Login Attempt</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="21" t="inlineStr">
         <is>
           <t>Validate system response to invalid credentials</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="21" t="inlineStr">
         <is>
           <t>System is running</t>
         </is>
       </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="G3" s="21" t="inlineStr">
         <is>
           <t>1. Navigate to login page
 2. Enter invalid username/password
 3. Click login button</t>
         </is>
       </c>
-      <c r="H3" s="7" t="inlineStr">
+      <c r="H3" s="21" t="inlineStr">
         <is>
           <t>Error message displayed, user not authenticated</t>
         </is>
       </c>
-      <c r="I3" s="7" t="inlineStr">
+      <c r="I3" s="21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J3" s="7" t="inlineStr">
+      <c r="J3" s="21" t="inlineStr">
         <is>
           <t>Unit Test</t>
         </is>
       </c>
-      <c r="K3" s="7" t="inlineStr">
+      <c r="K3" s="21" t="inlineStr">
         <is>
           <t>Developer</t>
         </is>
       </c>
-      <c r="L3" s="7" t="inlineStr">
+      <c r="L3" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="M3" s="7" t="inlineStr">
+      <c r="M3" s="21" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="N3" s="7" t="n">
-        <v/>
-      </c>
-      <c r="O3" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P3" s="7" t="inlineStr">
+      <c r="N3" s="21" t="n">
+        <v/>
+      </c>
+      <c r="O3" s="21" t="n">
+        <v/>
+      </c>
+      <c r="P3" s="21" t="inlineStr">
         <is>
           <t>Error handling validation</t>
         </is>
       </c>
-      <c r="Q3" s="7" t="inlineStr">
+      <c r="Q3" s="21" t="inlineStr">
         <is>
           <t>REQ-001</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="20" t="inlineStr">
         <is>
           <t>TEST-003</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="20" t="inlineStr">
         <is>
           <t>Functional</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="20" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="20" t="inlineStr">
         <is>
           <t>Data Import Process</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="E4" s="20" t="inlineStr">
         <is>
           <t>Validate CSV data import functionality</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="20" t="inlineStr">
         <is>
           <t>Test data file prepared, System configured</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="20" t="inlineStr">
         <is>
           <t>1. Navigate to import page
 2. Select test CSV file
@@ -944,85 +1093,85 @@
 4. Verify data in system</t>
         </is>
       </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="H4" s="20" t="inlineStr">
         <is>
           <t>Data successfully imported without errors</t>
         </is>
       </c>
-      <c r="I4" s="6" t="inlineStr">
+      <c r="I4" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J4" s="6" t="inlineStr">
+      <c r="J4" s="20" t="inlineStr">
         <is>
           <t>Integration Test</t>
         </is>
       </c>
-      <c r="K4" s="6" t="inlineStr">
+      <c r="K4" s="20" t="inlineStr">
         <is>
           <t>QA Engineer</t>
         </is>
       </c>
-      <c r="L4" s="6" t="inlineStr">
+      <c r="L4" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="M4" s="6" t="inlineStr">
+      <c r="M4" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="N4" s="6" t="n">
-        <v/>
-      </c>
-      <c r="O4" s="6" t="n">
-        <v/>
-      </c>
-      <c r="P4" s="6" t="inlineStr">
+      <c r="N4" s="20" t="n">
+        <v/>
+      </c>
+      <c r="O4" s="20" t="n">
+        <v/>
+      </c>
+      <c r="P4" s="20" t="inlineStr">
         <is>
           <t>Integration environment ready</t>
         </is>
       </c>
-      <c r="Q4" s="6" t="inlineStr">
+      <c r="Q4" s="20" t="inlineStr">
         <is>
           <t>REQ-002</t>
         </is>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="A5" s="21" t="inlineStr">
         <is>
           <t>TEST-004</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="21" t="inlineStr">
         <is>
           <t>Functional</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="21" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="21" t="inlineStr">
         <is>
           <t>Data Export Process</t>
         </is>
       </c>
-      <c r="E5" s="7" t="inlineStr">
+      <c r="E5" s="21" t="inlineStr">
         <is>
           <t>Validate export functionality in multiple formats</t>
         </is>
       </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="F5" s="21" t="inlineStr">
         <is>
           <t>Sample data exists in system</t>
         </is>
       </c>
-      <c r="G5" s="7" t="inlineStr">
+      <c r="G5" s="21" t="inlineStr">
         <is>
           <t>1. Navigate to export page
 2. Select data range
@@ -1030,85 +1179,85 @@
 4. Execute export</t>
         </is>
       </c>
-      <c r="H5" s="7" t="inlineStr">
+      <c r="H5" s="21" t="inlineStr">
         <is>
           <t>File generated with correct data and format</t>
         </is>
       </c>
-      <c r="I5" s="7" t="inlineStr">
+      <c r="I5" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="J5" s="7" t="inlineStr">
+      <c r="J5" s="21" t="inlineStr">
         <is>
           <t>Integration Test</t>
         </is>
       </c>
-      <c r="K5" s="7" t="inlineStr">
+      <c r="K5" s="21" t="inlineStr">
         <is>
           <t>QA Engineer</t>
         </is>
       </c>
-      <c r="L5" s="7" t="inlineStr">
+      <c r="L5" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="M5" s="7" t="inlineStr">
+      <c r="M5" s="21" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="N5" s="7" t="n">
-        <v/>
-      </c>
-      <c r="O5" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P5" s="7" t="inlineStr">
+      <c r="N5" s="21" t="n">
+        <v/>
+      </c>
+      <c r="O5" s="21" t="n">
+        <v/>
+      </c>
+      <c r="P5" s="21" t="inlineStr">
         <is>
           <t>Export formats supported</t>
         </is>
       </c>
-      <c r="Q5" s="7" t="inlineStr">
+      <c r="Q5" s="21" t="inlineStr">
         <is>
           <t>REQ-002</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="20" t="inlineStr">
         <is>
           <t>TEST-005</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="20" t="inlineStr">
         <is>
           <t>Functional</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="20" t="inlineStr">
         <is>
           <t>System</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" s="20" t="inlineStr">
         <is>
           <t>Dashboard Real-time Updates</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="E6" s="20" t="inlineStr">
         <is>
           <t>Validate live data updates on dashboard</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="20" t="inlineStr">
         <is>
           <t>System running with data feed active</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="G6" s="20" t="inlineStr">
         <is>
           <t>1. Open dashboard
 2. Monitor data refresh
@@ -1116,85 +1265,85 @@
 4. Check data accuracy</t>
         </is>
       </c>
-      <c r="H6" s="6" t="inlineStr">
+      <c r="H6" s="20" t="inlineStr">
         <is>
           <t>Dashboard updates every 30 seconds with current data</t>
         </is>
       </c>
-      <c r="I6" s="6" t="inlineStr">
+      <c r="I6" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J6" s="6" t="inlineStr">
+      <c r="J6" s="20" t="inlineStr">
         <is>
           <t>System Test</t>
         </is>
       </c>
-      <c r="K6" s="6" t="inlineStr">
+      <c r="K6" s="20" t="inlineStr">
         <is>
           <t>QA Engineer</t>
         </is>
       </c>
-      <c r="L6" s="6" t="inlineStr">
+      <c r="L6" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="M6" s="6" t="inlineStr">
+      <c r="M6" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="N6" s="6" t="n">
-        <v/>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v/>
-      </c>
-      <c r="P6" s="6" t="inlineStr">
+      <c r="N6" s="20" t="n">
+        <v/>
+      </c>
+      <c r="O6" s="20" t="n">
+        <v/>
+      </c>
+      <c r="P6" s="20" t="inlineStr">
         <is>
           <t>Real-time data feed configured</t>
         </is>
       </c>
-      <c r="Q6" s="6" t="inlineStr">
+      <c r="Q6" s="20" t="inlineStr">
         <is>
           <t>REQ-003</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="21" t="inlineStr">
         <is>
           <t>TEST-006</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="21" t="inlineStr">
         <is>
           <t>Functional</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="21" t="inlineStr">
         <is>
           <t>System</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="21" t="inlineStr">
         <is>
           <t>Custom Report Generation</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="21" t="inlineStr">
         <is>
           <t>Validate custom report creation and generation</t>
         </is>
       </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="F7" s="21" t="inlineStr">
         <is>
           <t>User logged in with report permissions</t>
         </is>
       </c>
-      <c r="G7" s="7" t="inlineStr">
+      <c r="G7" s="21" t="inlineStr">
         <is>
           <t>1. Navigate to reports section
 2. Select custom report option
@@ -1202,255 +1351,255 @@
 4. Generate report</t>
         </is>
       </c>
-      <c r="H7" s="7" t="inlineStr">
+      <c r="H7" s="21" t="inlineStr">
         <is>
           <t>Custom report generated with selected parameters</t>
         </is>
       </c>
-      <c r="I7" s="7" t="inlineStr">
+      <c r="I7" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="J7" s="7" t="inlineStr">
+      <c r="J7" s="21" t="inlineStr">
         <is>
           <t>System Test</t>
         </is>
       </c>
-      <c r="K7" s="7" t="inlineStr">
+      <c r="K7" s="21" t="inlineStr">
         <is>
           <t>Business Analyst</t>
         </is>
       </c>
-      <c r="L7" s="7" t="inlineStr">
+      <c r="L7" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="M7" s="7" t="inlineStr">
+      <c r="M7" s="21" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="N7" s="7" t="n">
-        <v/>
-      </c>
-      <c r="O7" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P7" s="7" t="inlineStr">
+      <c r="N7" s="21" t="n">
+        <v/>
+      </c>
+      <c r="O7" s="21" t="n">
+        <v/>
+      </c>
+      <c r="P7" s="21" t="inlineStr">
         <is>
           <t>Report engine configured</t>
         </is>
       </c>
-      <c r="Q7" s="7" t="inlineStr">
+      <c r="Q7" s="21" t="inlineStr">
         <is>
           <t>REQ-003</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="20" t="inlineStr">
         <is>
           <t>TEST-007</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="20" t="inlineStr">
         <is>
           <t>Non-Functional</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="20" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="20" t="inlineStr">
         <is>
           <t>System Availability</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E8" s="20" t="inlineStr">
         <is>
           <t>Validate 99.9% uptime requirement</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F8" s="20" t="inlineStr">
         <is>
           <t>Production-like environment, Monitoring tools active</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="G8" s="20" t="inlineStr">
         <is>
           <t>1. Run system for test period
 2. Monitor uptime metrics
 3. Calculate availability percentage</t>
         </is>
       </c>
-      <c r="H8" s="6" t="inlineStr">
+      <c r="H8" s="20" t="inlineStr">
         <is>
           <t>System maintains 99.9% availability</t>
         </is>
       </c>
-      <c r="I8" s="6" t="inlineStr">
+      <c r="I8" s="20" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="J8" s="6" t="inlineStr">
+      <c r="J8" s="20" t="inlineStr">
         <is>
           <t>Performance Test</t>
         </is>
       </c>
-      <c r="K8" s="6" t="inlineStr">
+      <c r="K8" s="20" t="inlineStr">
         <is>
           <t>Performance Engineer</t>
         </is>
       </c>
-      <c r="L8" s="6" t="inlineStr">
+      <c r="L8" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="M8" s="6" t="inlineStr">
+      <c r="M8" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="N8" s="6" t="n">
-        <v/>
-      </c>
-      <c r="O8" s="6" t="n">
-        <v/>
-      </c>
-      <c r="P8" s="6" t="inlineStr">
+      <c r="N8" s="20" t="n">
+        <v/>
+      </c>
+      <c r="O8" s="20" t="n">
+        <v/>
+      </c>
+      <c r="P8" s="20" t="inlineStr">
         <is>
           <t>Monitoring and alerting configured</t>
         </is>
       </c>
-      <c r="Q8" s="6" t="inlineStr">
+      <c r="Q8" s="20" t="inlineStr">
         <is>
           <t>REQ-004</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="21" t="inlineStr">
         <is>
           <t>TEST-008</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="21" t="inlineStr">
         <is>
           <t>Non-Functional</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="21" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="21" t="inlineStr">
         <is>
           <t>Response Time</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="E9" s="21" t="inlineStr">
         <is>
           <t>Validate 2-second response time requirement</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr">
+      <c r="F9" s="21" t="inlineStr">
         <is>
           <t>Load testing tools configured</t>
         </is>
       </c>
-      <c r="G9" s="7" t="inlineStr">
+      <c r="G9" s="21" t="inlineStr">
         <is>
           <t>1. Execute load test with 1000 concurrent users
 2. Measure response times
 3. Analyze performance metrics</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr">
+      <c r="H9" s="21" t="inlineStr">
         <is>
           <t>95% of requests complete within 2 seconds</t>
         </is>
       </c>
-      <c r="I9" s="7" t="inlineStr">
+      <c r="I9" s="21" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr">
+      <c r="J9" s="21" t="inlineStr">
         <is>
           <t>Performance Test</t>
         </is>
       </c>
-      <c r="K9" s="7" t="inlineStr">
+      <c r="K9" s="21" t="inlineStr">
         <is>
           <t>Performance Engineer</t>
         </is>
       </c>
-      <c r="L9" s="7" t="inlineStr">
+      <c r="L9" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="M9" s="7" t="inlineStr">
+      <c r="M9" s="21" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="N9" s="7" t="n">
-        <v/>
-      </c>
-      <c r="O9" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P9" s="7" t="inlineStr">
+      <c r="N9" s="21" t="n">
+        <v/>
+      </c>
+      <c r="O9" s="21" t="n">
+        <v/>
+      </c>
+      <c r="P9" s="21" t="inlineStr">
         <is>
           <t>Load testing environment ready</t>
         </is>
       </c>
-      <c r="Q9" s="7" t="inlineStr">
+      <c r="Q9" s="21" t="inlineStr">
         <is>
           <t>REQ-005</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="20" t="inlineStr">
         <is>
           <t>TEST-009</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="20" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="20" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D10" s="20" t="inlineStr">
         <is>
           <t>Data Encryption</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="20" t="inlineStr">
         <is>
           <t>Validate data encryption at rest and in transit</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F10" s="20" t="inlineStr">
         <is>
           <t>Security tools configured</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="G10" s="20" t="inlineStr">
         <is>
           <t>1. Monitor data transmission
 2. Verify encryption protocols
@@ -1458,85 +1607,85 @@
 4. Validate certificate usage</t>
         </is>
       </c>
-      <c r="H10" s="6" t="inlineStr">
+      <c r="H10" s="20" t="inlineStr">
         <is>
           <t>All data encrypted using industry standards</t>
         </is>
       </c>
-      <c r="I10" s="6" t="inlineStr">
+      <c r="I10" s="20" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="J10" s="6" t="inlineStr">
+      <c r="J10" s="20" t="inlineStr">
         <is>
           <t>Integration Test</t>
         </is>
       </c>
-      <c r="K10" s="6" t="inlineStr">
+      <c r="K10" s="20" t="inlineStr">
         <is>
           <t>Security Engineer</t>
         </is>
       </c>
-      <c r="L10" s="6" t="inlineStr">
+      <c r="L10" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="M10" s="6" t="inlineStr">
+      <c r="M10" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="N10" s="6" t="n">
-        <v/>
-      </c>
-      <c r="O10" s="6" t="n">
-        <v/>
-      </c>
-      <c r="P10" s="6" t="inlineStr">
+      <c r="N10" s="20" t="n">
+        <v/>
+      </c>
+      <c r="O10" s="20" t="n">
+        <v/>
+      </c>
+      <c r="P10" s="20" t="inlineStr">
         <is>
           <t>Security scanning tools ready</t>
         </is>
       </c>
-      <c r="Q10" s="6" t="inlineStr">
+      <c r="Q10" s="20" t="inlineStr">
         <is>
           <t>REQ-006</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="inlineStr">
+      <c r="A11" s="21" t="inlineStr">
         <is>
           <t>TEST-010</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="21" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="21" t="inlineStr">
         <is>
           <t>System</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr">
         <is>
           <t>CRM Integration</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="21" t="inlineStr">
         <is>
           <t>Validate bidirectional sync with CRM system</t>
         </is>
       </c>
-      <c r="F11" s="7" t="inlineStr">
+      <c r="F11" s="21" t="inlineStr">
         <is>
           <t>CRM test environment available</t>
         </is>
       </c>
-      <c r="G11" s="7" t="inlineStr">
+      <c r="G11" s="21" t="inlineStr">
         <is>
           <t>1. Create record in solution
 2. Verify sync to CRM
@@ -1544,85 +1693,85 @@
 4. Verify sync back to solution</t>
         </is>
       </c>
-      <c r="H11" s="7" t="inlineStr">
+      <c r="H11" s="21" t="inlineStr">
         <is>
           <t>Data syncs correctly in both directions</t>
         </is>
       </c>
-      <c r="I11" s="7" t="inlineStr">
+      <c r="I11" s="21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J11" s="7" t="inlineStr">
+      <c r="J11" s="21" t="inlineStr">
         <is>
           <t>System Test</t>
         </is>
       </c>
-      <c r="K11" s="7" t="inlineStr">
+      <c r="K11" s="21" t="inlineStr">
         <is>
           <t>Integration Specialist</t>
         </is>
       </c>
-      <c r="L11" s="7" t="inlineStr">
+      <c r="L11" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="M11" s="7" t="inlineStr">
+      <c r="M11" s="21" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="N11" s="7" t="n">
-        <v/>
-      </c>
-      <c r="O11" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P11" s="7" t="inlineStr">
+      <c r="N11" s="21" t="n">
+        <v/>
+      </c>
+      <c r="O11" s="21" t="n">
+        <v/>
+      </c>
+      <c r="P11" s="21" t="inlineStr">
         <is>
           <t>CRM test API configured</t>
         </is>
       </c>
-      <c r="Q11" s="7" t="inlineStr">
+      <c r="Q11" s="21" t="inlineStr">
         <is>
           <t>REQ-007</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" s="20" t="inlineStr">
         <is>
           <t>TEST-011</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="B12" s="20" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C12" s="20" t="inlineStr">
         <is>
           <t>System</t>
         </is>
       </c>
-      <c r="D12" s="6" t="inlineStr">
+      <c r="D12" s="20" t="inlineStr">
         <is>
           <t>SSO Authentication</t>
         </is>
       </c>
-      <c r="E12" s="6" t="inlineStr">
+      <c r="E12" s="20" t="inlineStr">
         <is>
           <t>Validate Single Sign-On integration</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
+      <c r="F12" s="20" t="inlineStr">
         <is>
           <t>SSO test environment configured</t>
         </is>
       </c>
-      <c r="G12" s="6" t="inlineStr">
+      <c r="G12" s="20" t="inlineStr">
         <is>
           <t>1. Access system via SSO
 2. Verify user authentication
@@ -1630,85 +1779,85 @@
 4. Test session management</t>
         </is>
       </c>
-      <c r="H12" s="6" t="inlineStr">
+      <c r="H12" s="20" t="inlineStr">
         <is>
           <t>Users authenticate via SSO with correct permissions</t>
         </is>
       </c>
-      <c r="I12" s="6" t="inlineStr">
+      <c r="I12" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J12" s="6" t="inlineStr">
+      <c r="J12" s="20" t="inlineStr">
         <is>
           <t>System Test</t>
         </is>
       </c>
-      <c r="K12" s="6" t="inlineStr">
+      <c r="K12" s="20" t="inlineStr">
         <is>
           <t>Identity Engineer</t>
         </is>
       </c>
-      <c r="L12" s="6" t="inlineStr">
+      <c r="L12" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="M12" s="6" t="inlineStr">
+      <c r="M12" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="N12" s="6" t="n">
-        <v/>
-      </c>
-      <c r="O12" s="6" t="n">
-        <v/>
-      </c>
-      <c r="P12" s="6" t="inlineStr">
+      <c r="N12" s="20" t="n">
+        <v/>
+      </c>
+      <c r="O12" s="20" t="n">
+        <v/>
+      </c>
+      <c r="P12" s="20" t="inlineStr">
         <is>
           <t>SSO test environment ready</t>
         </is>
       </c>
-      <c r="Q12" s="6" t="inlineStr">
+      <c r="Q12" s="20" t="inlineStr">
         <is>
           <t>REQ-008</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="inlineStr">
+      <c r="A13" s="21" t="inlineStr">
         <is>
           <t>TEST-012</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="21" t="inlineStr">
         <is>
           <t>Compliance</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="21" t="inlineStr">
         <is>
           <t>System</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
+      <c r="D13" s="21" t="inlineStr">
         <is>
           <t>GDPR Data Handling</t>
         </is>
       </c>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="E13" s="21" t="inlineStr">
         <is>
           <t>Validate GDPR compliance for data operations</t>
         </is>
       </c>
-      <c r="F13" s="7" t="inlineStr">
+      <c r="F13" s="21" t="inlineStr">
         <is>
           <t>Test data with PII elements</t>
         </is>
       </c>
-      <c r="G13" s="7" t="inlineStr">
+      <c r="G13" s="21" t="inlineStr">
         <is>
           <t>1. Test data collection consent
 2. Verify data processing logs
@@ -1716,85 +1865,85 @@
 4. Validate data portability</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr">
+      <c r="H13" s="21" t="inlineStr">
         <is>
           <t>All GDPR requirements met with proper controls</t>
         </is>
       </c>
-      <c r="I13" s="7" t="inlineStr">
+      <c r="I13" s="21" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr">
+      <c r="J13" s="21" t="inlineStr">
         <is>
           <t>System Test</t>
         </is>
       </c>
-      <c r="K13" s="7" t="inlineStr">
+      <c r="K13" s="21" t="inlineStr">
         <is>
           <t>Compliance Officer</t>
         </is>
       </c>
-      <c r="L13" s="7" t="inlineStr">
+      <c r="L13" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="M13" s="7" t="inlineStr">
+      <c r="M13" s="21" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="N13" s="7" t="n">
-        <v/>
-      </c>
-      <c r="O13" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P13" s="7" t="inlineStr">
+      <c r="N13" s="21" t="n">
+        <v/>
+      </c>
+      <c r="O13" s="21" t="n">
+        <v/>
+      </c>
+      <c r="P13" s="21" t="inlineStr">
         <is>
           <t>GDPR compliance tools configured</t>
         </is>
       </c>
-      <c r="Q13" s="7" t="inlineStr">
+      <c r="Q13" s="21" t="inlineStr">
         <is>
           <t>REQ-009</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" s="20" t="inlineStr">
         <is>
           <t>TEST-013</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B14" s="20" t="inlineStr">
         <is>
           <t>Operational</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C14" s="20" t="inlineStr">
         <is>
           <t>System</t>
         </is>
       </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="D14" s="20" t="inlineStr">
         <is>
           <t>Backup and Recovery</t>
         </is>
       </c>
-      <c r="E14" s="6" t="inlineStr">
+      <c r="E14" s="20" t="inlineStr">
         <is>
           <t>Validate automated backup and recovery procedures</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
+      <c r="F14" s="20" t="inlineStr">
         <is>
           <t>Backup system configured</t>
         </is>
       </c>
-      <c r="G14" s="6" t="inlineStr">
+      <c r="G14" s="20" t="inlineStr">
         <is>
           <t>1. Trigger automated backup
 2. Simulate system failure
@@ -1802,85 +1951,85 @@
 4. Verify data integrity</t>
         </is>
       </c>
-      <c r="H14" s="6" t="inlineStr">
+      <c r="H14" s="20" t="inlineStr">
         <is>
           <t>System recovers within 4-hour RTO with no data loss</t>
         </is>
       </c>
-      <c r="I14" s="6" t="inlineStr">
+      <c r="I14" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="J14" s="6" t="inlineStr">
+      <c r="J14" s="20" t="inlineStr">
         <is>
           <t>System Test</t>
         </is>
       </c>
-      <c r="K14" s="6" t="inlineStr">
+      <c r="K14" s="20" t="inlineStr">
         <is>
           <t>Operations Engineer</t>
         </is>
       </c>
-      <c r="L14" s="6" t="inlineStr">
+      <c r="L14" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="M14" s="6" t="inlineStr">
+      <c r="M14" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="N14" s="6" t="n">
-        <v/>
-      </c>
-      <c r="O14" s="6" t="n">
-        <v/>
-      </c>
-      <c r="P14" s="6" t="inlineStr">
+      <c r="N14" s="20" t="n">
+        <v/>
+      </c>
+      <c r="O14" s="20" t="n">
+        <v/>
+      </c>
+      <c r="P14" s="20" t="inlineStr">
         <is>
           <t>Backup infrastructure ready</t>
         </is>
       </c>
-      <c r="Q14" s="6" t="inlineStr">
+      <c r="Q14" s="20" t="inlineStr">
         <is>
           <t>REQ-010</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
+      <c r="A15" s="21" t="inlineStr">
         <is>
           <t>TEST-014</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B15" s="21" t="inlineStr">
         <is>
           <t>Functional</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="21" t="inlineStr">
         <is>
           <t>UAT</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="D15" s="21" t="inlineStr">
         <is>
           <t>Multi-language Support</t>
         </is>
       </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="E15" s="21" t="inlineStr">
         <is>
           <t>Validate interface in multiple languages</t>
         </is>
       </c>
-      <c r="F15" s="7" t="inlineStr">
+      <c r="F15" s="21" t="inlineStr">
         <is>
           <t>Language packs installed</t>
         </is>
       </c>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="G15" s="21" t="inlineStr">
         <is>
           <t>1. Switch to Spanish interface
 2. Navigate through application
@@ -1888,85 +2037,85 @@
 4. Verify translations</t>
         </is>
       </c>
-      <c r="H15" s="7" t="inlineStr">
+      <c r="H15" s="21" t="inlineStr">
         <is>
           <t>Interface displays correctly in all supported languages</t>
         </is>
       </c>
-      <c r="I15" s="7" t="inlineStr">
+      <c r="I15" s="21" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="J15" s="7" t="inlineStr">
+      <c r="J15" s="21" t="inlineStr">
         <is>
           <t>UAT</t>
         </is>
       </c>
-      <c r="K15" s="7" t="inlineStr">
+      <c r="K15" s="21" t="inlineStr">
         <is>
           <t>Localization Tester</t>
         </is>
       </c>
-      <c r="L15" s="7" t="inlineStr">
+      <c r="L15" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="M15" s="7" t="inlineStr">
+      <c r="M15" s="21" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="N15" s="7" t="n">
-        <v/>
-      </c>
-      <c r="O15" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P15" s="7" t="inlineStr">
+      <c r="N15" s="21" t="n">
+        <v/>
+      </c>
+      <c r="O15" s="21" t="n">
+        <v/>
+      </c>
+      <c r="P15" s="21" t="inlineStr">
         <is>
           <t>Language packs configured</t>
         </is>
       </c>
-      <c r="Q15" s="7" t="inlineStr">
+      <c r="Q15" s="21" t="inlineStr">
         <is>
           <t>REQ-011</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" s="20" t="inlineStr">
         <is>
           <t>TEST-015</t>
         </is>
       </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="B16" s="20" t="inlineStr">
         <is>
           <t>Functional</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
+      <c r="C16" s="20" t="inlineStr">
         <is>
           <t>UAT</t>
         </is>
       </c>
-      <c r="D16" s="6" t="inlineStr">
+      <c r="D16" s="20" t="inlineStr">
         <is>
           <t>Mobile Application</t>
         </is>
       </c>
-      <c r="E16" s="6" t="inlineStr">
+      <c r="E16" s="20" t="inlineStr">
         <is>
           <t>Validate mobile app functionality</t>
         </is>
       </c>
-      <c r="F16" s="6" t="inlineStr">
+      <c r="F16" s="20" t="inlineStr">
         <is>
           <t>Mobile test devices available</t>
         </is>
       </c>
-      <c r="G16" s="6" t="inlineStr">
+      <c r="G16" s="20" t="inlineStr">
         <is>
           <t>1. Install mobile app
 2. Test core functionality
@@ -1974,48 +2123,48 @@
 4. Test offline capabilities</t>
         </is>
       </c>
-      <c r="H16" s="6" t="inlineStr">
+      <c r="H16" s="20" t="inlineStr">
         <is>
           <t>Mobile app provides core functionality with good UX</t>
         </is>
       </c>
-      <c r="I16" s="6" t="inlineStr">
+      <c r="I16" s="20" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="J16" s="6" t="inlineStr">
+      <c r="J16" s="20" t="inlineStr">
         <is>
           <t>UAT</t>
         </is>
       </c>
-      <c r="K16" s="6" t="inlineStr">
+      <c r="K16" s="20" t="inlineStr">
         <is>
           <t>Mobile Tester</t>
         </is>
       </c>
-      <c r="L16" s="6" t="inlineStr">
+      <c r="L16" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="M16" s="6" t="inlineStr">
+      <c r="M16" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="N16" s="6" t="n">
-        <v/>
-      </c>
-      <c r="O16" s="6" t="n">
-        <v/>
-      </c>
-      <c r="P16" s="6" t="inlineStr">
+      <c r="N16" s="20" t="n">
+        <v/>
+      </c>
+      <c r="O16" s="20" t="n">
+        <v/>
+      </c>
+      <c r="P16" s="20" t="inlineStr">
         <is>
           <t>Mobile test environment ready</t>
         </is>
       </c>
-      <c r="Q16" s="6" t="inlineStr">
+      <c r="Q16" s="20" t="inlineStr">
         <is>
           <t>REQ-012</t>
         </is>
@@ -2023,6 +2172,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q16"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
 </worksheet>
 </file>
--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/test-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/test-plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cover" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -51,12 +51,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="FF5D6D7E"/>
-      <sz val="11"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <b val="1"/>
       <color rgb="FFCC0000"/>
       <sz val="12"/>
@@ -75,13 +69,6 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF5D6D7E"/>
-      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,6 +105,13 @@
       <b val="1"/>
       <color rgb="FFCC0000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF5D6D7E"/>
+      <sz val="12"/>
+      <u val="single"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -266,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -278,9 +272,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -300,79 +291,79 @@
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="9" fontId="9" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -381,7 +372,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -408,11 +399,13 @@
       <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1238250" cy="314325"/>
+    <ext cx="1708214" cy="365379"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
@@ -421,6 +414,10 @@
         </a:stretch>
       </blipFill>
       <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="209550" y="2032000"/>
+          <a:ext cx="1708214" cy="365379"/>
+        </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
@@ -725,15 +722,15 @@
   </sheetPr>
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="3" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="32.81640625" customWidth="1" min="3" max="3"/>
     <col width="3" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -743,95 +740,89 @@
     </row>
     <row r="2" ht="15" customHeight="1"/>
     <row r="3" ht="40" customHeight="1">
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>[DOCUMENT TITLE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="25" customHeight="1">
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B3" s="33" t="inlineStr">
         <is>
           <t>Test Plan</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="30" customHeight="1">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Delivery Document</t>
+    <row r="4" ht="18" customHeight="1"/>
+    <row r="5" ht="18" customHeight="1">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Generated:</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>November 27, 2025</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Generated:</t>
+          <t>Solution:</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>November 16, 2025</t>
+          <t>Sample Solution</t>
         </is>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Solution:</t>
+          <t>Customer:</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 26, 2025</t>
+          <t>[Customer Name]</t>
         </is>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Customer:</t>
+          <t>Version:</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Sample Solution</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Version:</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>[Customer Name]</t>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Draft</t>
         </is>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Status:</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="40" customHeight="1"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="4" t="n"/>
+    </row>
+    <row r="11" ht="18" customHeight="1"/>
     <row r="12" ht="30" customHeight="1">
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="32" t="inlineStr">
         <is>
           <t>eoframework.org</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
@@ -864,336 +855,336 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="35" t="inlineStr">
+      <c r="A1" s="34" t="inlineStr">
         <is>
           <t>Functional Tests</t>
         </is>
       </c>
     </row>
     <row r="2" ht="32" customHeight="1">
-      <c r="A2" s="36" t="inlineStr">
+      <c r="A2" s="35" t="inlineStr">
         <is>
           <t>Test ID</t>
         </is>
       </c>
-      <c r="B2" s="36" t="inlineStr">
+      <c r="B2" s="35" t="inlineStr">
         <is>
           <t>Test Type</t>
         </is>
       </c>
-      <c r="C2" s="36" t="inlineStr">
+      <c r="C2" s="35" t="inlineStr">
         <is>
           <t>Test Name</t>
         </is>
       </c>
-      <c r="D2" s="36" t="inlineStr">
+      <c r="D2" s="35" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E2" s="36" t="inlineStr">
+      <c r="E2" s="35" t="inlineStr">
         <is>
           <t>Pre-conditions</t>
         </is>
       </c>
-      <c r="F2" s="36" t="inlineStr">
+      <c r="F2" s="35" t="inlineStr">
         <is>
           <t>Test Steps</t>
         </is>
       </c>
-      <c r="G2" s="36" t="inlineStr">
+      <c r="G2" s="35" t="inlineStr">
         <is>
           <t>Expected Results</t>
         </is>
       </c>
-      <c r="H2" s="36" t="inlineStr">
+      <c r="H2" s="35" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="I2" s="36" t="inlineStr">
+      <c r="I2" s="35" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
     </row>
     <row r="3" ht="40" customHeight="1">
-      <c r="A3" s="37" t="inlineStr">
+      <c r="A3" s="36" t="inlineStr">
         <is>
           <t>FT-001</t>
         </is>
       </c>
-      <c r="B3" s="38" t="inlineStr">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="C3" s="38" t="inlineStr">
+      <c r="C3" s="37" t="inlineStr">
         <is>
           <t>User Authentication</t>
         </is>
       </c>
-      <c r="D3" s="38" t="inlineStr">
+      <c r="D3" s="37" t="inlineStr">
         <is>
           <t>Validate user login with valid credentials</t>
         </is>
       </c>
-      <c r="E3" s="38" t="inlineStr">
+      <c r="E3" s="37" t="inlineStr">
         <is>
           <t>Valid user account exists; System is running</t>
         </is>
       </c>
-      <c r="F3" s="38" t="inlineStr">
+      <c r="F3" s="37" t="inlineStr">
         <is>
           <t>1. Navigate to login page; 2. Enter valid username and password; 3. Click login button</t>
         </is>
       </c>
-      <c r="G3" s="38" t="inlineStr">
+      <c r="G3" s="37" t="inlineStr">
         <is>
           <t>User authenticated and redirected to dashboard</t>
         </is>
       </c>
-      <c r="H3" s="39" t="inlineStr">
+      <c r="H3" s="38" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="I3" s="39" t="inlineStr">
+      <c r="I3" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="4" ht="40" customHeight="1">
-      <c r="A4" s="40" t="inlineStr">
+      <c r="A4" s="39" t="inlineStr">
         <is>
           <t>FT-002</t>
         </is>
       </c>
-      <c r="B4" s="41" t="inlineStr">
+      <c r="B4" s="40" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="C4" s="41" t="inlineStr">
+      <c r="C4" s="40" t="inlineStr">
         <is>
           <t>Invalid Login Attempt</t>
         </is>
       </c>
-      <c r="D4" s="41" t="inlineStr">
+      <c r="D4" s="40" t="inlineStr">
         <is>
           <t>Validate system response to invalid credentials</t>
         </is>
       </c>
-      <c r="E4" s="41" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>System is running</t>
         </is>
       </c>
-      <c r="F4" s="41" t="inlineStr">
+      <c r="F4" s="40" t="inlineStr">
         <is>
           <t>1. Navigate to login page; 2. Enter invalid username/password; 3. Click login button</t>
         </is>
       </c>
-      <c r="G4" s="41" t="inlineStr">
+      <c r="G4" s="40" t="inlineStr">
         <is>
           <t>Error message displayed and user not authenticated</t>
         </is>
       </c>
-      <c r="H4" s="42" t="inlineStr">
+      <c r="H4" s="41" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="I4" s="42" t="inlineStr">
+      <c r="I4" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="5" ht="40" customHeight="1">
-      <c r="A5" s="37" t="inlineStr">
+      <c r="A5" s="36" t="inlineStr">
         <is>
           <t>FT-003</t>
         </is>
       </c>
-      <c r="B5" s="38" t="inlineStr">
+      <c r="B5" s="37" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="C5" s="38" t="inlineStr">
+      <c r="C5" s="37" t="inlineStr">
         <is>
           <t>Data Import Process</t>
         </is>
       </c>
-      <c r="D5" s="38" t="inlineStr">
+      <c r="D5" s="37" t="inlineStr">
         <is>
           <t>Validate CSV data import functionality</t>
         </is>
       </c>
-      <c r="E5" s="38" t="inlineStr">
+      <c r="E5" s="37" t="inlineStr">
         <is>
           <t>Test data file prepared; System configured</t>
         </is>
       </c>
-      <c r="F5" s="38" t="inlineStr">
+      <c r="F5" s="37" t="inlineStr">
         <is>
           <t>1. Navigate to import page; 2. Select test CSV file; 3. Execute import process; 4. Verify data in system</t>
         </is>
       </c>
-      <c r="G5" s="38" t="inlineStr">
+      <c r="G5" s="37" t="inlineStr">
         <is>
           <t>Data successfully imported without errors</t>
         </is>
       </c>
-      <c r="H5" s="39" t="inlineStr">
+      <c r="H5" s="38" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="I5" s="39" t="inlineStr">
+      <c r="I5" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="6" ht="40" customHeight="1">
-      <c r="A6" s="40" t="inlineStr">
+      <c r="A6" s="39" t="inlineStr">
         <is>
           <t>FT-004</t>
         </is>
       </c>
-      <c r="B6" s="41" t="inlineStr">
+      <c r="B6" s="40" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="C6" s="41" t="inlineStr">
+      <c r="C6" s="40" t="inlineStr">
         <is>
           <t>Data Export Process</t>
         </is>
       </c>
-      <c r="D6" s="41" t="inlineStr">
+      <c r="D6" s="40" t="inlineStr">
         <is>
           <t>Validate export functionality in multiple formats</t>
         </is>
       </c>
-      <c r="E6" s="41" t="inlineStr">
+      <c r="E6" s="40" t="inlineStr">
         <is>
           <t>Sample data exists in system</t>
         </is>
       </c>
-      <c r="F6" s="41" t="inlineStr">
+      <c r="F6" s="40" t="inlineStr">
         <is>
           <t>1. Navigate to export page; 2. Select data range; 3. Choose export format (CSV/Excel); 4. Execute export</t>
         </is>
       </c>
-      <c r="G6" s="41" t="inlineStr">
+      <c r="G6" s="40" t="inlineStr">
         <is>
           <t>File generated with correct data and format</t>
         </is>
       </c>
-      <c r="H6" s="42" t="inlineStr">
+      <c r="H6" s="41" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="I6" s="42" t="inlineStr">
+      <c r="I6" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="37" t="inlineStr">
+      <c r="A7" s="36" t="inlineStr">
         <is>
           <t>FT-005</t>
         </is>
       </c>
-      <c r="B7" s="38" t="inlineStr">
+      <c r="B7" s="37" t="inlineStr">
         <is>
           <t>System</t>
         </is>
       </c>
-      <c r="C7" s="38" t="inlineStr">
+      <c r="C7" s="37" t="inlineStr">
         <is>
           <t>Dashboard Real-time Updates</t>
         </is>
       </c>
-      <c r="D7" s="38" t="inlineStr">
+      <c r="D7" s="37" t="inlineStr">
         <is>
           <t>Validate live data updates on dashboard</t>
         </is>
       </c>
-      <c r="E7" s="38" t="inlineStr">
+      <c r="E7" s="37" t="inlineStr">
         <is>
           <t>System running with data feed active</t>
         </is>
       </c>
-      <c r="F7" s="38" t="inlineStr">
+      <c r="F7" s="37" t="inlineStr">
         <is>
           <t>1. Open dashboard; 2. Monitor data refresh; 3. Verify timestamp updates; 4. Check data accuracy</t>
         </is>
       </c>
-      <c r="G7" s="38" t="inlineStr">
+      <c r="G7" s="37" t="inlineStr">
         <is>
           <t>Dashboard updates every 30 seconds with current data</t>
         </is>
       </c>
-      <c r="H7" s="39" t="inlineStr">
+      <c r="H7" s="38" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="I7" s="39" t="inlineStr">
+      <c r="I7" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1">
-      <c r="A8" s="40" t="inlineStr">
+      <c r="A8" s="39" t="inlineStr">
         <is>
           <t>FT-006</t>
         </is>
       </c>
-      <c r="B8" s="41" t="inlineStr">
+      <c r="B8" s="40" t="inlineStr">
         <is>
           <t>System</t>
         </is>
       </c>
-      <c r="C8" s="41" t="inlineStr">
+      <c r="C8" s="40" t="inlineStr">
         <is>
           <t>Custom Report Generation</t>
         </is>
       </c>
-      <c r="D8" s="41" t="inlineStr">
+      <c r="D8" s="40" t="inlineStr">
         <is>
           <t>Validate custom report creation and generation</t>
         </is>
       </c>
-      <c r="E8" s="41" t="inlineStr">
+      <c r="E8" s="40" t="inlineStr">
         <is>
           <t>User logged in with report permissions</t>
         </is>
       </c>
-      <c r="F8" s="41" t="inlineStr">
+      <c r="F8" s="40" t="inlineStr">
         <is>
           <t>1. Navigate to reports section; 2. Select custom report option; 3. Configure report parameters; 4. Generate report</t>
         </is>
       </c>
-      <c r="G8" s="41" t="inlineStr">
+      <c r="G8" s="40" t="inlineStr">
         <is>
           <t>Custom report generated with selected parameters</t>
         </is>
       </c>
-      <c r="H8" s="42" t="inlineStr">
+      <c r="H8" s="41" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="I8" s="42" t="inlineStr">
+      <c r="I8" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
@@ -1235,289 +1226,289 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="35" t="inlineStr">
+      <c r="A1" s="34" t="inlineStr">
         <is>
           <t>Non-Functional Tests</t>
         </is>
       </c>
     </row>
     <row r="2" ht="32" customHeight="1">
-      <c r="A2" s="36" t="inlineStr">
+      <c r="A2" s="35" t="inlineStr">
         <is>
           <t>Test ID</t>
         </is>
       </c>
-      <c r="B2" s="36" t="inlineStr">
+      <c r="B2" s="35" t="inlineStr">
         <is>
           <t>Test Type</t>
         </is>
       </c>
-      <c r="C2" s="36" t="inlineStr">
+      <c r="C2" s="35" t="inlineStr">
         <is>
           <t>Test Name</t>
         </is>
       </c>
-      <c r="D2" s="36" t="inlineStr">
+      <c r="D2" s="35" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E2" s="36" t="inlineStr">
+      <c r="E2" s="35" t="inlineStr">
         <is>
           <t>Pre-conditions</t>
         </is>
       </c>
-      <c r="F2" s="36" t="inlineStr">
+      <c r="F2" s="35" t="inlineStr">
         <is>
           <t>Test Steps</t>
         </is>
       </c>
-      <c r="G2" s="36" t="inlineStr">
+      <c r="G2" s="35" t="inlineStr">
         <is>
           <t>Expected Results</t>
         </is>
       </c>
-      <c r="H2" s="36" t="inlineStr">
+      <c r="H2" s="35" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="I2" s="36" t="inlineStr">
+      <c r="I2" s="35" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
     </row>
     <row r="3" ht="40" customHeight="1">
-      <c r="A3" s="37" t="inlineStr">
+      <c r="A3" s="36" t="inlineStr">
         <is>
           <t>NFT-001</t>
         </is>
       </c>
-      <c r="B3" s="38" t="inlineStr">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="C3" s="38" t="inlineStr">
+      <c r="C3" s="37" t="inlineStr">
         <is>
           <t>System Availability</t>
         </is>
       </c>
-      <c r="D3" s="38" t="inlineStr">
+      <c r="D3" s="37" t="inlineStr">
         <is>
           <t>Validate 99.9% uptime requirement</t>
         </is>
       </c>
-      <c r="E3" s="38" t="inlineStr">
+      <c r="E3" s="37" t="inlineStr">
         <is>
           <t>Production-like environment; Monitoring tools active</t>
         </is>
       </c>
-      <c r="F3" s="38" t="inlineStr">
+      <c r="F3" s="37" t="inlineStr">
         <is>
           <t>1. Run system for test period; 2. Monitor uptime metrics; 3. Calculate availability percentage</t>
         </is>
       </c>
-      <c r="G3" s="38" t="inlineStr">
+      <c r="G3" s="37" t="inlineStr">
         <is>
           <t>System maintains 99.9% availability</t>
         </is>
       </c>
-      <c r="H3" s="39" t="inlineStr">
+      <c r="H3" s="38" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="I3" s="39" t="inlineStr">
+      <c r="I3" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="4" ht="40" customHeight="1">
-      <c r="A4" s="40" t="inlineStr">
+      <c r="A4" s="39" t="inlineStr">
         <is>
           <t>NFT-002</t>
         </is>
       </c>
-      <c r="B4" s="41" t="inlineStr">
+      <c r="B4" s="40" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="C4" s="41" t="inlineStr">
+      <c r="C4" s="40" t="inlineStr">
         <is>
           <t>Response Time</t>
         </is>
       </c>
-      <c r="D4" s="41" t="inlineStr">
+      <c r="D4" s="40" t="inlineStr">
         <is>
           <t>Validate 2-second response time requirement</t>
         </is>
       </c>
-      <c r="E4" s="41" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>Load testing tools configured</t>
         </is>
       </c>
-      <c r="F4" s="41" t="inlineStr">
+      <c r="F4" s="40" t="inlineStr">
         <is>
           <t>1. Execute load test with 1000 concurrent users; 2. Measure response times; 3. Analyze performance metrics</t>
         </is>
       </c>
-      <c r="G4" s="41" t="inlineStr">
+      <c r="G4" s="40" t="inlineStr">
         <is>
           <t>95% of requests complete within 2 seconds</t>
         </is>
       </c>
-      <c r="H4" s="42" t="inlineStr">
+      <c r="H4" s="41" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="I4" s="42" t="inlineStr">
+      <c r="I4" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="5" ht="40" customHeight="1">
-      <c r="A5" s="37" t="inlineStr">
+      <c r="A5" s="36" t="inlineStr">
         <is>
           <t>NFT-003</t>
         </is>
       </c>
-      <c r="B5" s="38" t="inlineStr">
+      <c r="B5" s="37" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="C5" s="38" t="inlineStr">
+      <c r="C5" s="37" t="inlineStr">
         <is>
           <t>Data Encryption</t>
         </is>
       </c>
-      <c r="D5" s="38" t="inlineStr">
+      <c r="D5" s="37" t="inlineStr">
         <is>
           <t>Validate data encryption at rest and in transit</t>
         </is>
       </c>
-      <c r="E5" s="38" t="inlineStr">
+      <c r="E5" s="37" t="inlineStr">
         <is>
           <t>Security tools configured</t>
         </is>
       </c>
-      <c r="F5" s="38" t="inlineStr">
+      <c r="F5" s="37" t="inlineStr">
         <is>
           <t>1. Monitor data transmission; 2. Verify encryption protocols; 3. Check data storage encryption; 4. Validate certificate usage</t>
         </is>
       </c>
-      <c r="G5" s="38" t="inlineStr">
+      <c r="G5" s="37" t="inlineStr">
         <is>
           <t>All data encrypted using industry standards</t>
         </is>
       </c>
-      <c r="H5" s="39" t="inlineStr">
+      <c r="H5" s="38" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="I5" s="39" t="inlineStr">
+      <c r="I5" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="6" ht="40" customHeight="1">
-      <c r="A6" s="40" t="inlineStr">
+      <c r="A6" s="39" t="inlineStr">
         <is>
           <t>NFT-004</t>
         </is>
       </c>
-      <c r="B6" s="41" t="inlineStr">
+      <c r="B6" s="40" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="C6" s="41" t="inlineStr">
+      <c r="C6" s="40" t="inlineStr">
         <is>
           <t>Access Control</t>
         </is>
       </c>
-      <c r="D6" s="41" t="inlineStr">
+      <c r="D6" s="40" t="inlineStr">
         <is>
           <t>Validate role-based access control</t>
         </is>
       </c>
-      <c r="E6" s="41" t="inlineStr">
+      <c r="E6" s="40" t="inlineStr">
         <is>
           <t>Test users with different roles created</t>
         </is>
       </c>
-      <c r="F6" s="41" t="inlineStr">
+      <c r="F6" s="40" t="inlineStr">
         <is>
           <t>1. Test role-based access; 2. Verify permission boundaries; 3. Test privilege escalation; 4. Validate audit logging</t>
         </is>
       </c>
-      <c r="G6" s="41" t="inlineStr">
+      <c r="G6" s="40" t="inlineStr">
         <is>
           <t>Access controls properly enforced with full audit trail</t>
         </is>
       </c>
-      <c r="H6" s="42" t="inlineStr">
+      <c r="H6" s="41" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="I6" s="42" t="inlineStr">
+      <c r="I6" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="37" t="inlineStr">
+      <c r="A7" s="36" t="inlineStr">
         <is>
           <t>NFT-005</t>
         </is>
       </c>
-      <c r="B7" s="38" t="inlineStr">
+      <c r="B7" s="37" t="inlineStr">
         <is>
           <t>Reliability</t>
         </is>
       </c>
-      <c r="C7" s="38" t="inlineStr">
+      <c r="C7" s="37" t="inlineStr">
         <is>
           <t>Backup and Recovery</t>
         </is>
       </c>
-      <c r="D7" s="38" t="inlineStr">
+      <c r="D7" s="37" t="inlineStr">
         <is>
           <t>Validate automated backup and recovery procedures</t>
         </is>
       </c>
-      <c r="E7" s="38" t="inlineStr">
+      <c r="E7" s="37" t="inlineStr">
         <is>
           <t>Backup system configured</t>
         </is>
       </c>
-      <c r="F7" s="38" t="inlineStr">
+      <c r="F7" s="37" t="inlineStr">
         <is>
           <t>1. Trigger automated backup; 2. Simulate system failure; 3. Execute recovery process; 4. Verify data integrity</t>
         </is>
       </c>
-      <c r="G7" s="38" t="inlineStr">
+      <c r="G7" s="37" t="inlineStr">
         <is>
           <t>System recovers within 4-hour RTO with no data loss</t>
         </is>
       </c>
-      <c r="H7" s="39" t="inlineStr">
+      <c r="H7" s="38" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="I7" s="39" t="inlineStr">
+      <c r="I7" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
@@ -1559,289 +1550,289 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="35" t="inlineStr">
+      <c r="A1" s="34" t="inlineStr">
         <is>
           <t>User Acceptance Tests</t>
         </is>
       </c>
     </row>
     <row r="2" ht="32" customHeight="1">
-      <c r="A2" s="36" t="inlineStr">
+      <c r="A2" s="35" t="inlineStr">
         <is>
           <t>Test ID</t>
         </is>
       </c>
-      <c r="B2" s="36" t="inlineStr">
+      <c r="B2" s="35" t="inlineStr">
         <is>
           <t>Test Type</t>
         </is>
       </c>
-      <c r="C2" s="36" t="inlineStr">
+      <c r="C2" s="35" t="inlineStr">
         <is>
           <t>Test Name</t>
         </is>
       </c>
-      <c r="D2" s="36" t="inlineStr">
+      <c r="D2" s="35" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E2" s="36" t="inlineStr">
+      <c r="E2" s="35" t="inlineStr">
         <is>
           <t>Pre-conditions</t>
         </is>
       </c>
-      <c r="F2" s="36" t="inlineStr">
+      <c r="F2" s="35" t="inlineStr">
         <is>
           <t>Test Steps</t>
         </is>
       </c>
-      <c r="G2" s="36" t="inlineStr">
+      <c r="G2" s="35" t="inlineStr">
         <is>
           <t>Expected Results</t>
         </is>
       </c>
-      <c r="H2" s="36" t="inlineStr">
+      <c r="H2" s="35" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="I2" s="36" t="inlineStr">
+      <c r="I2" s="35" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
     </row>
     <row r="3" ht="40" customHeight="1">
-      <c r="A3" s="37" t="inlineStr">
+      <c r="A3" s="36" t="inlineStr">
         <is>
           <t>UAT-001</t>
         </is>
       </c>
-      <c r="B3" s="38" t="inlineStr">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Business Process</t>
         </is>
       </c>
-      <c r="C3" s="38" t="inlineStr">
+      <c r="C3" s="37" t="inlineStr">
         <is>
           <t>End-to-End Order Processing</t>
         </is>
       </c>
-      <c r="D3" s="38" t="inlineStr">
+      <c r="D3" s="37" t="inlineStr">
         <is>
           <t>Validate complete order workflow from creation to delivery</t>
         </is>
       </c>
-      <c r="E3" s="38" t="inlineStr">
+      <c r="E3" s="37" t="inlineStr">
         <is>
           <t>Test environment ready; Sample data loaded</t>
         </is>
       </c>
-      <c r="F3" s="38" t="inlineStr">
+      <c r="F3" s="37" t="inlineStr">
         <is>
           <t>1. Create new order; 2. Process payment; 3. Track fulfillment; 4. Complete delivery</t>
         </is>
       </c>
-      <c r="G3" s="38" t="inlineStr">
+      <c r="G3" s="37" t="inlineStr">
         <is>
           <t>Order flows through all stages successfully</t>
         </is>
       </c>
-      <c r="H3" s="39" t="inlineStr">
+      <c r="H3" s="38" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="I3" s="39" t="inlineStr">
+      <c r="I3" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="4" ht="40" customHeight="1">
-      <c r="A4" s="40" t="inlineStr">
+      <c r="A4" s="39" t="inlineStr">
         <is>
           <t>UAT-002</t>
         </is>
       </c>
-      <c r="B4" s="41" t="inlineStr">
+      <c r="B4" s="40" t="inlineStr">
         <is>
           <t>User Interface</t>
         </is>
       </c>
-      <c r="C4" s="41" t="inlineStr">
+      <c r="C4" s="40" t="inlineStr">
         <is>
           <t>Multi-language Support</t>
         </is>
       </c>
-      <c r="D4" s="41" t="inlineStr">
+      <c r="D4" s="40" t="inlineStr">
         <is>
           <t>Validate interface displays correctly in multiple languages</t>
         </is>
       </c>
-      <c r="E4" s="41" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>Language packs installed</t>
         </is>
       </c>
-      <c r="F4" s="41" t="inlineStr">
+      <c r="F4" s="40" t="inlineStr">
         <is>
           <t>1. Switch to Spanish interface; 2. Navigate through application; 3. Switch to French interface; 4. Verify translations</t>
         </is>
       </c>
-      <c r="G4" s="41" t="inlineStr">
+      <c r="G4" s="40" t="inlineStr">
         <is>
           <t>Interface displays correctly in all supported languages</t>
         </is>
       </c>
-      <c r="H4" s="42" t="inlineStr">
+      <c r="H4" s="41" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="I4" s="42" t="inlineStr">
+      <c r="I4" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="5" ht="40" customHeight="1">
-      <c r="A5" s="37" t="inlineStr">
+      <c r="A5" s="36" t="inlineStr">
         <is>
           <t>UAT-003</t>
         </is>
       </c>
-      <c r="B5" s="38" t="inlineStr">
+      <c r="B5" s="37" t="inlineStr">
         <is>
           <t>User Interface</t>
         </is>
       </c>
-      <c r="C5" s="38" t="inlineStr">
+      <c r="C5" s="37" t="inlineStr">
         <is>
           <t>Mobile Application</t>
         </is>
       </c>
-      <c r="D5" s="38" t="inlineStr">
+      <c r="D5" s="37" t="inlineStr">
         <is>
           <t>Validate mobile app functionality and responsiveness</t>
         </is>
       </c>
-      <c r="E5" s="38" t="inlineStr">
+      <c r="E5" s="37" t="inlineStr">
         <is>
           <t>Mobile test devices available</t>
         </is>
       </c>
-      <c r="F5" s="38" t="inlineStr">
+      <c r="F5" s="37" t="inlineStr">
         <is>
           <t>1. Install mobile app; 2. Test core functionality; 3. Verify responsive design; 4. Test offline capabilities</t>
         </is>
       </c>
-      <c r="G5" s="38" t="inlineStr">
+      <c r="G5" s="37" t="inlineStr">
         <is>
           <t>Mobile app provides core functionality with good UX</t>
         </is>
       </c>
-      <c r="H5" s="39" t="inlineStr">
+      <c r="H5" s="38" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="I5" s="39" t="inlineStr">
+      <c r="I5" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="6" ht="40" customHeight="1">
-      <c r="A6" s="40" t="inlineStr">
+      <c r="A6" s="39" t="inlineStr">
         <is>
           <t>UAT-004</t>
         </is>
       </c>
-      <c r="B6" s="41" t="inlineStr">
+      <c r="B6" s="40" t="inlineStr">
         <is>
           <t>Business Process</t>
         </is>
       </c>
-      <c r="C6" s="41" t="inlineStr">
+      <c r="C6" s="40" t="inlineStr">
         <is>
           <t>CRM Integration</t>
         </is>
       </c>
-      <c r="D6" s="41" t="inlineStr">
+      <c r="D6" s="40" t="inlineStr">
         <is>
           <t>Validate bidirectional data sync with CRM system</t>
         </is>
       </c>
-      <c r="E6" s="41" t="inlineStr">
+      <c r="E6" s="40" t="inlineStr">
         <is>
           <t>CRM test environment available</t>
         </is>
       </c>
-      <c r="F6" s="41" t="inlineStr">
+      <c r="F6" s="40" t="inlineStr">
         <is>
           <t>1. Create record in solution; 2. Verify sync to CRM; 3. Update record in CRM; 4. Verify sync back to solution</t>
         </is>
       </c>
-      <c r="G6" s="41" t="inlineStr">
+      <c r="G6" s="40" t="inlineStr">
         <is>
           <t>Data syncs correctly in both directions</t>
         </is>
       </c>
-      <c r="H6" s="42" t="inlineStr">
+      <c r="H6" s="41" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="I6" s="42" t="inlineStr">
+      <c r="I6" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="37" t="inlineStr">
+      <c r="A7" s="36" t="inlineStr">
         <is>
           <t>UAT-005</t>
         </is>
       </c>
-      <c r="B7" s="38" t="inlineStr">
+      <c r="B7" s="37" t="inlineStr">
         <is>
           <t>Business Process</t>
         </is>
       </c>
-      <c r="C7" s="38" t="inlineStr">
+      <c r="C7" s="37" t="inlineStr">
         <is>
           <t>SSO Authentication</t>
         </is>
       </c>
-      <c r="D7" s="38" t="inlineStr">
+      <c r="D7" s="37" t="inlineStr">
         <is>
           <t>Validate Single Sign-On integration with identity provider</t>
         </is>
       </c>
-      <c r="E7" s="38" t="inlineStr">
+      <c r="E7" s="37" t="inlineStr">
         <is>
           <t>SSO test environment configured</t>
         </is>
       </c>
-      <c r="F7" s="38" t="inlineStr">
+      <c r="F7" s="37" t="inlineStr">
         <is>
           <t>1. Access system via SSO; 2. Verify user authentication; 3. Check role mapping; 4. Test session management</t>
         </is>
       </c>
-      <c r="G7" s="38" t="inlineStr">
+      <c r="G7" s="37" t="inlineStr">
         <is>
           <t>Users authenticate via SSO with correct permissions</t>
         </is>
       </c>
-      <c r="H7" s="39" t="inlineStr">
+      <c r="H7" s="38" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="I7" s="39" t="inlineStr">
+      <c r="I7" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/test-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/test-plan.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>November 27, 2025</t>
+          <t>November 29, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/test-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/test-plan.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>November 29, 2025</t>
+          <t>November 30, 2025</t>
         </is>
       </c>
     </row>
